--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_21_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_21_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>485520.4767464602</v>
+        <v>482623.0484888224</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.2100830470332</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>18.2100830470332</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="G2" t="n">
-        <v>16.03944114782684</v>
+        <v>16.03944114782432</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.2100830470332</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>16.03944114782432</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>16.03944114782684</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>18.2100830470332</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>18.2100830470332</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18.2100830470332</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>16.03944114782432</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.2100830470332</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.2100830470332</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>16.03944114782684</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>18.2100830470332</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>37.12738969971014</v>
+      </c>
+      <c r="H5" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="G5" t="n">
-        <v>44.00343544142157</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,64 +984,64 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>43.85944218949135</v>
       </c>
-      <c r="G6" t="n">
+      <c r="Y6" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="H6" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="I6" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>17.62325037119973</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="I7" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="J7" t="n">
-        <v>42.76279030041251</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>26.23619181829162</v>
       </c>
       <c r="R7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>24.65546709791185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,64 +1142,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>55.72339490806527</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.38870434448781</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>29.63673178547965</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="G8" t="n">
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="H8" t="n">
-        <v>98.74883103803275</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,70 +1212,70 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>108.5166779089043</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>62.17490796054055</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>36.57392307749219</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="W9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="H9" t="n">
-        <v>102.3448132540521</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>51.82194179032386</v>
+      </c>
+      <c r="H10" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="E10" t="n">
+      <c r="I10" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="F10" t="n">
-        <v>112.1126601249237</v>
-      </c>
-      <c r="G10" t="n">
-        <v>84.48026621731221</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>32.65832442698833</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>14.26856482072056</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>289.1825630108443</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292592</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>126.5388824951728</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>126.0960504902347</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>110.7115619691729</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389959</v>
+        <v>28.90056660389956</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.32021545255304</v>
+        <v>101.6950537740603</v>
       </c>
       <c r="T14" t="n">
         <v>202.4786139429426</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9688673339484</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>69.5081040192033</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.89778431512083</v>
+        <v>87.89778431512082</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853827</v>
+        <v>12.76005920853825</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.4436781526119</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434407</v>
+        <v>91.91693778434406</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2037931948048</v>
+        <v>201.3319631416781</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>263.4826708855988</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684688</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295164</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179208</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651989</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262549</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510302</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139452998</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221881</v>
+        <v>42.04747230221573</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716139</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843769</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295198</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545723</v>
@@ -2138,7 +2138,7 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179187</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W20" t="n">
         <v>317.630766365199</v>
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189036</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.823760294356</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545723</v>
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707164</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
         <v>134.0758985510282</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545716</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2716,10 +2716,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612652</v>
@@ -2779,7 +2779,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2801,10 +2801,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
         <v>255.2416659947559</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545729</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
         <v>354.6277363038396</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
         <v>135.6366187464139</v>
@@ -2965,10 +2965,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.124505344301</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3004,16 +3004,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368237</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
         <v>186.9744509998808</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295168</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453002</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221772</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,7 +3478,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3509,7 +3509,7 @@
         <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200458</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3715,7 +3715,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612642</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3907,7 +3907,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707172</v>
+        <v>113.810845670719</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510281</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4141,10 +4141,10 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943559</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G46" t="n">
         <v>134.0758985510282</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.44630890830129</v>
+        <v>36.05228562846412</v>
       </c>
       <c r="C2" t="n">
-        <v>54.44630890830129</v>
+        <v>36.05228562846412</v>
       </c>
       <c r="D2" t="n">
-        <v>54.44630890830129</v>
+        <v>36.05228562846412</v>
       </c>
       <c r="E2" t="n">
-        <v>54.44630890830129</v>
+        <v>36.05228562846412</v>
       </c>
       <c r="F2" t="n">
-        <v>36.05228562846978</v>
+        <v>17.65826234863548</v>
       </c>
       <c r="G2" t="n">
-        <v>19.85082992359418</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="H2" t="n">
-        <v>19.85082992359418</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="I2" t="n">
-        <v>1.456806643762656</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="J2" t="n">
-        <v>1.456806643762656</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="K2" t="n">
-        <v>1.456806643762656</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="L2" t="n">
-        <v>19.48478886032553</v>
+        <v>18.75638553844125</v>
       </c>
       <c r="M2" t="n">
-        <v>37.5127710768884</v>
+        <v>36.7843677550013</v>
       </c>
       <c r="N2" t="n">
-        <v>55.54075329345127</v>
+        <v>54.81234997156135</v>
       </c>
       <c r="O2" t="n">
-        <v>72.84033218813281</v>
+        <v>72.84033218812139</v>
       </c>
       <c r="P2" t="n">
-        <v>72.84033218813281</v>
+        <v>72.84033218812139</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.84033218813281</v>
+        <v>72.84033218812139</v>
       </c>
       <c r="R2" t="n">
-        <v>72.84033218813281</v>
+        <v>54.44630890829276</v>
       </c>
       <c r="S2" t="n">
-        <v>72.84033218813281</v>
+        <v>36.05228562846412</v>
       </c>
       <c r="T2" t="n">
-        <v>72.84033218813281</v>
+        <v>36.05228562846412</v>
       </c>
       <c r="U2" t="n">
-        <v>72.84033218813281</v>
+        <v>36.05228562846412</v>
       </c>
       <c r="V2" t="n">
-        <v>72.84033218813281</v>
+        <v>36.05228562846412</v>
       </c>
       <c r="W2" t="n">
-        <v>72.84033218813281</v>
+        <v>36.05228562846412</v>
       </c>
       <c r="X2" t="n">
-        <v>72.84033218813281</v>
+        <v>36.05228562846412</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.84033218813281</v>
+        <v>36.05228562846412</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.84033218813281</v>
+        <v>38.2448532034197</v>
       </c>
       <c r="C3" t="n">
-        <v>72.84033218813281</v>
+        <v>38.2448532034197</v>
       </c>
       <c r="D3" t="n">
-        <v>56.63887648325721</v>
+        <v>19.85082992359106</v>
       </c>
       <c r="E3" t="n">
-        <v>56.63887648325721</v>
+        <v>19.85082992359106</v>
       </c>
       <c r="F3" t="n">
-        <v>38.24485320342569</v>
+        <v>19.85082992359106</v>
       </c>
       <c r="G3" t="n">
-        <v>38.24485320342569</v>
+        <v>19.85082992359106</v>
       </c>
       <c r="H3" t="n">
-        <v>19.85082992359418</v>
+        <v>19.85082992359106</v>
       </c>
       <c r="I3" t="n">
-        <v>1.456806643762656</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="J3" t="n">
-        <v>1.456806643762656</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762656</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032553</v>
+        <v>19.48478886032247</v>
       </c>
       <c r="M3" t="n">
-        <v>26.23887646229041</v>
+        <v>26.2388764622863</v>
       </c>
       <c r="N3" t="n">
-        <v>44.26685867885327</v>
+        <v>44.26685867884635</v>
       </c>
       <c r="O3" t="n">
-        <v>62.29484089541614</v>
+        <v>62.29484089540639</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218813281</v>
+        <v>72.84033218812139</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.84033218813281</v>
+        <v>72.84033218812139</v>
       </c>
       <c r="R3" t="n">
-        <v>72.84033218813281</v>
+        <v>72.84033218812139</v>
       </c>
       <c r="S3" t="n">
-        <v>72.84033218813281</v>
+        <v>54.44630890829276</v>
       </c>
       <c r="T3" t="n">
-        <v>72.84033218813281</v>
+        <v>54.44630890829276</v>
       </c>
       <c r="U3" t="n">
-        <v>72.84033218813281</v>
+        <v>54.44630890829276</v>
       </c>
       <c r="V3" t="n">
-        <v>72.84033218813281</v>
+        <v>54.44630890829276</v>
       </c>
       <c r="W3" t="n">
-        <v>72.84033218813281</v>
+        <v>54.44630890829276</v>
       </c>
       <c r="X3" t="n">
-        <v>72.84033218813281</v>
+        <v>54.44630890829276</v>
       </c>
       <c r="Y3" t="n">
-        <v>72.84033218813281</v>
+        <v>54.44630890829276</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.85082992359418</v>
+        <v>17.65826234863548</v>
       </c>
       <c r="C4" t="n">
-        <v>19.85082992359418</v>
+        <v>17.65826234863548</v>
       </c>
       <c r="D4" t="n">
-        <v>19.85082992359418</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="E4" t="n">
-        <v>19.85082992359418</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="F4" t="n">
-        <v>19.85082992359418</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="G4" t="n">
-        <v>19.85082992359418</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="H4" t="n">
-        <v>19.85082992359418</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="I4" t="n">
-        <v>19.85082992359418</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762656</v>
+        <v>1.456806643762428</v>
       </c>
       <c r="K4" t="n">
-        <v>19.48478886032553</v>
+        <v>19.48478886032247</v>
       </c>
       <c r="L4" t="n">
-        <v>19.48478886032553</v>
+        <v>36.7843677550013</v>
       </c>
       <c r="M4" t="n">
-        <v>36.78436775500707</v>
+        <v>54.81234997156135</v>
       </c>
       <c r="N4" t="n">
-        <v>54.81234997156994</v>
+        <v>72.84033218812139</v>
       </c>
       <c r="O4" t="n">
-        <v>72.84033218813281</v>
+        <v>72.84033218812139</v>
       </c>
       <c r="P4" t="n">
-        <v>72.84033218813281</v>
+        <v>72.84033218812139</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.44630890830129</v>
+        <v>54.44630890829276</v>
       </c>
       <c r="R4" t="n">
-        <v>54.44630890830129</v>
+        <v>54.44630890829276</v>
       </c>
       <c r="S4" t="n">
-        <v>54.44630890830129</v>
+        <v>54.44630890829276</v>
       </c>
       <c r="T4" t="n">
-        <v>38.24485320342569</v>
+        <v>54.44630890829276</v>
       </c>
       <c r="U4" t="n">
-        <v>38.24485320342569</v>
+        <v>54.44630890829276</v>
       </c>
       <c r="V4" t="n">
-        <v>38.24485320342569</v>
+        <v>36.05228562846412</v>
       </c>
       <c r="W4" t="n">
-        <v>38.24485320342569</v>
+        <v>36.05228562846412</v>
       </c>
       <c r="X4" t="n">
-        <v>19.85082992359418</v>
+        <v>36.05228562846412</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.85082992359418</v>
+        <v>36.05228562846412</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.72950204554996</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="C5" t="n">
-        <v>98.72950204554996</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="D5" t="n">
-        <v>98.72950204554996</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="E5" t="n">
-        <v>98.72950204554996</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="F5" t="n">
-        <v>48.43151514946448</v>
+        <v>142.081988192432</v>
       </c>
       <c r="G5" t="n">
-        <v>3.98360056216997</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="H5" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="I5" t="n">
         <v>3.98360056216997</v>
       </c>
       <c r="J5" t="n">
-        <v>3.98360056216997</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="K5" t="n">
-        <v>3.98360056216997</v>
+        <v>46.41914195758014</v>
       </c>
       <c r="L5" t="n">
-        <v>51.28885723793834</v>
+        <v>62.2614493974929</v>
       </c>
       <c r="M5" t="n">
-        <v>100.5859141947917</v>
+        <v>111.5585063543463</v>
       </c>
       <c r="N5" t="n">
-        <v>149.8829711516451</v>
+        <v>160.8555633111997</v>
       </c>
       <c r="O5" t="n">
         <v>199.1800281084985</v>
@@ -4595,22 +4595,22 @@
         <v>149.0274889416355</v>
       </c>
       <c r="T5" t="n">
-        <v>98.72950204554996</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="U5" t="n">
-        <v>98.72950204554996</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="V5" t="n">
-        <v>98.72950204554996</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="W5" t="n">
-        <v>98.72950204554996</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="X5" t="n">
-        <v>98.72950204554996</v>
+        <v>149.0274889416355</v>
       </c>
       <c r="Y5" t="n">
-        <v>98.72950204554996</v>
+        <v>149.0274889416355</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199.1800281084985</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="C6" t="n">
-        <v>199.1800281084985</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="D6" t="n">
-        <v>199.1800281084985</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E6" t="n">
-        <v>199.1800281084985</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F6" t="n">
-        <v>154.8775612504264</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G6" t="n">
-        <v>104.5795743543409</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H6" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I6" t="n">
         <v>3.98360056216997</v>
@@ -4656,10 +4656,10 @@
         <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O6" t="n">
-        <v>170.4401317516709</v>
+        <v>198.1973125878844</v>
       </c>
       <c r="P6" t="n">
         <v>199.1800281084985</v>
@@ -4686,10 +4686,10 @@
         <v>199.1800281084985</v>
       </c>
       <c r="X6" t="n">
-        <v>199.1800281084985</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.1800281084985</v>
+        <v>104.5795743543409</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.47632513543981</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="C7" t="n">
-        <v>97.47632513543981</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="D7" t="n">
-        <v>97.47632513543981</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="E7" t="n">
-        <v>97.47632513543981</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="F7" t="n">
-        <v>97.47632513543981</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="G7" t="n">
-        <v>97.47632513543981</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="H7" t="n">
-        <v>97.47632513543981</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="I7" t="n">
-        <v>47.17833823935432</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J7" t="n">
         <v>3.98360056216997</v>
       </c>
       <c r="K7" t="n">
-        <v>3.98360056216997</v>
+        <v>53.28065751902335</v>
       </c>
       <c r="L7" t="n">
         <v>53.28065751902335</v>
@@ -4747,28 +4747,28 @@
         <v>172.6788242516383</v>
       </c>
       <c r="R7" t="n">
-        <v>122.3808373555528</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="S7" t="n">
-        <v>122.3808373555528</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="T7" t="n">
-        <v>122.3808373555528</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="U7" t="n">
-        <v>122.3808373555528</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="V7" t="n">
-        <v>122.3808373555528</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="W7" t="n">
-        <v>122.3808373555528</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="X7" t="n">
-        <v>122.3808373555528</v>
+        <v>172.6788242516383</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.47632513543981</v>
+        <v>172.6788242516383</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>448.4506404996946</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="C8" t="n">
-        <v>448.4506404996946</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="D8" t="n">
-        <v>448.4506404996946</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="E8" t="n">
-        <v>448.4506404996946</v>
+        <v>78.77921407519902</v>
       </c>
       <c r="F8" t="n">
-        <v>335.205529262398</v>
+        <v>22.49295659230481</v>
       </c>
       <c r="G8" t="n">
-        <v>221.9604180251014</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H8" t="n">
-        <v>122.2141240472905</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I8" t="n">
         <v>8.969012809993892</v>
@@ -4805,10 +4805,10 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687545</v>
+        <v>32.11753523687554</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773399</v>
+        <v>97.73708609773416</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083929</v>
@@ -4826,28 +4826,28 @@
         <v>448.4506404996946</v>
       </c>
       <c r="R8" t="n">
-        <v>448.4506404996946</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="S8" t="n">
-        <v>448.4506404996946</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="T8" t="n">
-        <v>448.4506404996946</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="U8" t="n">
-        <v>448.4506404996946</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="V8" t="n">
-        <v>448.4506404996946</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="W8" t="n">
-        <v>448.4506404996946</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="X8" t="n">
-        <v>448.4506404996946</v>
+        <v>192.0243253124956</v>
       </c>
       <c r="Y8" t="n">
-        <v>448.4506404996946</v>
+        <v>78.77921407519902</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>448.4506404996946</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="C9" t="n">
-        <v>338.8378345311044</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="D9" t="n">
-        <v>225.5927232938078</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="E9" t="n">
-        <v>225.5927232938078</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F9" t="n">
-        <v>225.5927232938078</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G9" t="n">
-        <v>112.3476120565112</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H9" t="n">
         <v>8.969012809993892</v>
@@ -4884,13 +4884,13 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993892</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>91.93611230387162</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>202.927645827546</v>
+        <v>176.439439640395</v>
       </c>
       <c r="N9" t="n">
         <v>287.4309731640694</v>
@@ -4905,28 +4905,28 @@
         <v>448.4506404996946</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="S9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="T9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="U9" t="n">
-        <v>448.4506404996946</v>
+        <v>411.5072838557631</v>
       </c>
       <c r="V9" t="n">
-        <v>448.4506404996946</v>
+        <v>298.2621726184665</v>
       </c>
       <c r="W9" t="n">
-        <v>448.4506404996946</v>
+        <v>185.0170613811699</v>
       </c>
       <c r="X9" t="n">
-        <v>448.4506404996946</v>
+        <v>71.77195014387324</v>
       </c>
       <c r="Y9" t="n">
-        <v>448.4506404996946</v>
+        <v>71.77195014387324</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>434.037948761593</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="C10" t="n">
-        <v>434.037948761593</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="D10" t="n">
         <v>320.7928375242964</v>
       </c>
       <c r="E10" t="n">
-        <v>207.5477262869998</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="F10" t="n">
-        <v>94.30261504970319</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993892</v>
+        <v>268.4474417764945</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993892</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993892</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="J10" t="n">
         <v>8.969012809993892</v>
@@ -4966,13 +4966,13 @@
         <v>85.67486684193852</v>
       </c>
       <c r="L10" t="n">
-        <v>196.6664003656129</v>
+        <v>115.4760399286714</v>
       </c>
       <c r="M10" t="n">
-        <v>307.6579338892873</v>
+        <v>226.4675734523458</v>
       </c>
       <c r="N10" t="n">
-        <v>418.6494674129617</v>
+        <v>337.4591069760202</v>
       </c>
       <c r="O10" t="n">
         <v>448.4506404996946</v>
@@ -4984,28 +4984,28 @@
         <v>434.037948761593</v>
       </c>
       <c r="R10" t="n">
-        <v>434.037948761593</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="S10" t="n">
-        <v>434.037948761593</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="T10" t="n">
-        <v>434.037948761593</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="U10" t="n">
-        <v>434.037948761593</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="V10" t="n">
-        <v>434.037948761593</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="W10" t="n">
-        <v>434.037948761593</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="X10" t="n">
-        <v>434.037948761593</v>
+        <v>320.7928375242964</v>
       </c>
       <c r="Y10" t="n">
-        <v>434.037948761593</v>
+        <v>320.7928375242964</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2268.308520734406</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373255</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>523.581465347718</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839474</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,7 +5051,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.5429342656</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995486</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734406</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y11" t="n">
-        <v>2268.308520734406</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5142,16 +5142,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199866</v>
@@ -5163,7 +5163,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>533.4780323548192</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="C13" t="n">
-        <v>364.5418494269123</v>
+        <v>511.7013404397344</v>
       </c>
       <c r="D13" t="n">
-        <v>214.4252100145766</v>
+        <v>361.5847010273986</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>361.5847010273986</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5203,7 +5203,7 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764915</v>
       </c>
       <c r="M13" t="n">
         <v>976.3387758760405</v>
@@ -5212,7 +5212,7 @@
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
         <v>1849.684251935978</v>
@@ -5224,25 +5224,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1815.464687513571</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1526.361820639214</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>1271.677332433327</v>
+        <v>970.0546934046016</v>
       </c>
       <c r="W13" t="n">
-        <v>982.2601623963667</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>754.2706114983494</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y13" t="n">
-        <v>533.4780323548192</v>
+        <v>680.6375233676413</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1967.685407793097</v>
+        <v>1592.593973528514</v>
       </c>
       <c r="C14" t="n">
-        <v>1967.685407793097</v>
+        <v>1223.631456588102</v>
       </c>
       <c r="D14" t="n">
-        <v>1609.419709186346</v>
+        <v>1223.631456588102</v>
       </c>
       <c r="E14" t="n">
         <v>1223.631456588102</v>
@@ -5273,55 +5273,55 @@
         <v>103.7230475307834</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169292</v>
+        <v>74.53055601169294</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773526</v>
+        <v>291.0377674773517</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720055996</v>
+        <v>666.2644720055978</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.6681406457</v>
+        <v>1168.668140645698</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275286</v>
+        <v>1759.358462275284</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235391</v>
+        <v>2364.220579235389</v>
       </c>
       <c r="O14" t="n">
         <v>2922.039463163072</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140401</v>
+        <v>3363.6239741404</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.06280504951</v>
+        <v>3647.062805049511</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584646</v>
+        <v>3726.527800584647</v>
       </c>
       <c r="S14" t="n">
-        <v>3653.477077905299</v>
+        <v>3623.805524045192</v>
       </c>
       <c r="T14" t="n">
-        <v>3448.953225437681</v>
+        <v>3419.281671577573</v>
       </c>
       <c r="U14" t="n">
-        <v>3448.953225437681</v>
+        <v>3165.777765179645</v>
       </c>
       <c r="V14" t="n">
-        <v>3117.89033809411</v>
+        <v>3095.567559099642</v>
       </c>
       <c r="W14" t="n">
-        <v>3117.89033809411</v>
+        <v>2742.798903829527</v>
       </c>
       <c r="X14" t="n">
-        <v>2744.42457983303</v>
+        <v>2369.333145568447</v>
       </c>
       <c r="Y14" t="n">
-        <v>2354.285247857219</v>
+        <v>1979.193813592636</v>
       </c>
     </row>
     <row r="15">
@@ -5343,7 +5343,7 @@
         <v>458.9250988334825</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3905408603675</v>
+        <v>312.3905408603674</v>
       </c>
       <c r="G15" t="n">
         <v>176.2051454295304</v>
@@ -5352,28 +5352,28 @@
         <v>87.41950470718612</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169292</v>
+        <v>74.53055601169294</v>
       </c>
       <c r="J15" t="n">
-        <v>83.59666915367569</v>
+        <v>170.1112445399404</v>
       </c>
       <c r="K15" t="n">
-        <v>349.9852472357423</v>
+        <v>170.1112445399404</v>
       </c>
       <c r="L15" t="n">
-        <v>754.5001060146222</v>
+        <v>574.6261033188205</v>
       </c>
       <c r="M15" t="n">
-        <v>1245.906734648578</v>
+        <v>1066.032731952776</v>
       </c>
       <c r="N15" t="n">
-        <v>1764.728079432162</v>
+        <v>1584.85407673636</v>
       </c>
       <c r="O15" t="n">
-        <v>2217.128454733395</v>
+        <v>2037.254452037593</v>
       </c>
       <c r="P15" t="n">
-        <v>2560.886573990975</v>
+        <v>2381.012571295174</v>
       </c>
       <c r="Q15" t="n">
         <v>2560.886573990975</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.9363895669477</v>
+        <v>774.6254479315622</v>
       </c>
       <c r="C16" t="n">
-        <v>631.9363895669477</v>
+        <v>774.6254479315622</v>
       </c>
       <c r="D16" t="n">
-        <v>481.8197501546118</v>
+        <v>774.6254479315622</v>
       </c>
       <c r="E16" t="n">
-        <v>481.8197501546118</v>
+        <v>626.7123543491691</v>
       </c>
       <c r="F16" t="n">
-        <v>334.9298026567014</v>
+        <v>479.8224068512588</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3759477130506</v>
+        <v>312.268551907608</v>
       </c>
       <c r="H16" t="n">
         <v>167.3759477130506</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169292</v>
+        <v>74.53055601169294</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525469</v>
+        <v>129.976586552547</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923167</v>
+        <v>350.9282837923172</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553099</v>
+        <v>689.1968198553104</v>
       </c>
       <c r="M16" t="n">
         <v>1056.242685479732</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229306</v>
+        <v>1419.995637229307</v>
       </c>
       <c r="O16" t="n">
         <v>1739.964067776857</v>
@@ -5461,25 +5461,25 @@
         <v>2080.068878389593</v>
       </c>
       <c r="S16" t="n">
-        <v>1890.979338613556</v>
+        <v>1890.979338613557</v>
       </c>
       <c r="T16" t="n">
-        <v>1669.84928127732</v>
+        <v>1669.849281277321</v>
       </c>
       <c r="U16" t="n">
-        <v>1380.754540676507</v>
+        <v>1466.483661942293</v>
       </c>
       <c r="V16" t="n">
-        <v>1126.07005247062</v>
+        <v>1466.483661942293</v>
       </c>
       <c r="W16" t="n">
-        <v>859.925940464965</v>
+        <v>1177.066491905332</v>
       </c>
       <c r="X16" t="n">
-        <v>631.9363895669477</v>
+        <v>1177.066491905332</v>
       </c>
       <c r="Y16" t="n">
-        <v>631.9363895669477</v>
+        <v>956.2739127618021</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233285</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767225</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283562</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J18" t="n">
-        <v>216.5575109835858</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334501</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277774</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>973.3971899277774</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>2057.657492802429</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2444.759048354585</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502087</v>
+        <v>872.8624197502119</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477706</v>
+        <v>735.8557341477737</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609036</v>
+        <v>617.6685920609066</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039793</v>
+        <v>501.6849958039821</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315378</v>
+        <v>386.7245456315404</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749437</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042785</v>
@@ -5683,7 +5683,7 @@
         <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
         <v>2087.878830313936</v>
@@ -5692,31 +5692,31 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.04923335254</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966193</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127666</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357081</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073045</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="20">
@@ -5732,67 +5732,67 @@
         <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233285</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612701</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767225</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
         <v>2476.13298385146</v>
@@ -5823,28 +5823,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511618</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>388.0214583249804</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>841.8200879193075</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1390.738552529596</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N21" t="n">
-        <v>1968.593900455998</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O21" t="n">
-        <v>2474.998855404248</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
         <v>2555.644190323788</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609053</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511618</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5929,31 +5929,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -6002,25 +6002,25 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
         <v>3496.71823738206</v>
@@ -6063,25 +6063,25 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>538.7790385694435</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>1087.697503179732</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N24" t="n">
-        <v>1665.552851106135</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O24" t="n">
-        <v>2171.957806054384</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
         <v>2555.644190323788</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502089</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477707</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609036</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039792</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H25" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6169,25 +6169,25 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.58138725498</v>
@@ -6203,7 +6203,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
         <v>1458.093420216582</v>
@@ -6212,22 +6212,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6236,40 +6236,40 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S26" t="n">
         <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J27" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>670.3561405779133</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1219.274605188202</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N27" t="n">
-        <v>1797.129953114605</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O27" t="n">
-        <v>2303.534908062855</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
         <v>2555.644190323788</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6397,34 +6397,34 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.581387254981</v>
@@ -6440,16 +6440,16 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796679</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
@@ -6461,10 +6461,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
@@ -6476,7 +6476,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612703</v>
@@ -6491,22 +6491,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6546,19 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>519.5985603334502</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>875.4343898857002</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.644190323788</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502111</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477729</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609057</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039813</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315397</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749456</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897931</v>
@@ -6622,7 +6622,7 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L31" t="n">
         <v>857.3827676902788</v>
@@ -6661,10 +6661,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
         <v>216.5575109835859</v>
@@ -6786,16 +6786,16 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>973.3971899277776</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N33" t="n">
-        <v>1551.25253785418</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>2057.65749280243</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
@@ -6935,25 +6935,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
         <v>4142.907144767228</v>
@@ -6962,25 +6962,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1390.738552529597</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N36" t="n">
-        <v>1968.593900456</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O36" t="n">
-        <v>2474.99885540425</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477709</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609038</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039794</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315377</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749435</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897931</v>
@@ -7093,13 +7093,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7117,13 +7117,13 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
         <v>1887.747186237501</v>
@@ -7138,7 +7138,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E38" t="n">
         <v>1104.234664943806</v>
@@ -7166,58 +7166,58 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J39" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>670.3561405779133</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1219.274605188202</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N39" t="n">
-        <v>1797.129953114605</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O39" t="n">
-        <v>2303.534908062855</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
         <v>857.3827676902786</v>
@@ -7342,28 +7342,28 @@
         <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
         <v>1664.992195357083</v>
@@ -7372,7 +7372,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
@@ -7409,25 +7409,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767228</v>
@@ -7442,19 +7442,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511622</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L42" t="n">
-        <v>535.3638672866908</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M42" t="n">
-        <v>1084.28233189698</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N42" t="n">
-        <v>1662.137679823382</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O42" t="n">
-        <v>2168.542634771632</v>
+        <v>2474.99885540425</v>
       </c>
       <c r="P42" t="n">
         <v>2555.644190323788</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502115</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477733</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609062</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039818</v>
       </c>
       <c r="F43" t="n">
         <v>386.7245456315383</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
@@ -7570,49 +7570,49 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.178257479667</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
@@ -7646,28 +7646,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R44" t="n">
         <v>4249.020448755811</v>
@@ -7679,10 +7679,10 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
@@ -7737,10 +7737,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477724</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F46" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
@@ -7804,25 +7804,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042789</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
@@ -7849,7 +7849,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107637</v>
+        <v>60.90377530107776</v>
       </c>
       <c r="K2" t="n">
-        <v>40.02794296996117</v>
+        <v>40.02794296996325</v>
       </c>
       <c r="L2" t="n">
-        <v>30.59377888689556</v>
+        <v>29.85801795570214</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.070085188520281</v>
+        <v>9.805846119713436</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855222</v>
+        <v>27.67667403855458</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.44336957621735</v>
+        <v>69.44336957621911</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>55.28179755587536</v>
+        <v>55.2817975558762</v>
       </c>
       <c r="K3" t="n">
-        <v>15.5411297792425</v>
+        <v>15.54112977924392</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.30284318956959</v>
+        <v>43.30284318957072</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>73.45227819721566</v>
+        <v>73.45227819721367</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48311410323734</v>
+        <v>57.95743621907563</v>
       </c>
       <c r="M4" t="n">
-        <v>56.86689482244769</v>
+        <v>57.60265575363925</v>
       </c>
       <c r="N4" t="n">
-        <v>48.72909356691414</v>
+        <v>48.7290935669124</v>
       </c>
       <c r="O4" t="n">
-        <v>66.91760054109447</v>
+        <v>48.7075174940623</v>
       </c>
       <c r="P4" t="n">
-        <v>60.93221199728728</v>
+        <v>60.93221199728818</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>88.50107625726477</v>
       </c>
       <c r="K5" t="n">
         <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
-        <v>31.78075680389457</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>11.08342642379245</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>1.810057396252972</v>
@@ -8374,10 +8374,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>45.86784710562524</v>
+        <v>95.66285413274987</v>
       </c>
       <c r="L7" t="n">
-        <v>78.28218310839884</v>
+        <v>28.48717608127421</v>
       </c>
       <c r="M7" t="n">
         <v>76.53954504419404</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3514840274684</v>
+        <v>37.34101893964862</v>
       </c>
       <c r="M10" t="n">
         <v>116.4537900083357</v>
@@ -8623,7 +8623,7 @@
         <v>108.4136727881176</v>
       </c>
       <c r="O10" t="n">
-        <v>47.20385316707271</v>
+        <v>129.2143182548924</v>
       </c>
       <c r="P10" t="n">
         <v>33.88793923037925</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>76.09032876016323</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>77.37908764444737</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>19.32499753269651</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23464,10 +23464,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>108.8373873069963</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.37483832150728</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9688673339484</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>258.2441544509316</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4436781526119</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396103</v>
+        <v>82.30038209396102</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>84.87183005312667</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>23.04032745099215</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-2.074784788419493e-12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-3.151399141643196e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-2.344791028008331e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>2.166586909879697e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-7.887024366937112e-13</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-5.186961971048731e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-2.039257651631488e-12</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-2.486899575160351e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-6.501466032204917e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-2.025046796916286e-13</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1048385.929630074</v>
+        <v>1048385.929630075</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>911296.2536149936</v>
+        <v>911296.2536149934</v>
       </c>
     </row>
     <row r="7">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321414</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="F2" t="n">
-        <v>359394.9721398939</v>
+        <v>359394.972139894</v>
       </c>
       <c r="G2" t="n">
         <v>410520.8849321421</v>
       </c>
       <c r="H2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.884932142</v>
       </c>
       <c r="I2" t="n">
-        <v>410520.8849321419</v>
+        <v>410520.884932142</v>
       </c>
       <c r="J2" t="n">
         <v>410520.884932142</v>
@@ -26344,16 +26344,16 @@
         <v>410520.884932142</v>
       </c>
       <c r="M2" t="n">
+        <v>410520.8849321422</v>
+      </c>
+      <c r="N2" t="n">
+        <v>410520.8849321416</v>
+      </c>
+      <c r="O2" t="n">
         <v>410520.8849321419</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>410520.8849321419</v>
-      </c>
-      <c r="O2" t="n">
-        <v>410520.8849321421</v>
-      </c>
-      <c r="P2" t="n">
-        <v>410520.8849321421</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321848</v>
+        <v>345405.5970321799</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876288</v>
+        <v>50948.63134876753</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429536</v>
+        <v>707780.8576429537</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654223</v>
+        <v>93369.88484654238</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975342</v>
+        <v>143964.0818975345</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.920821771112969e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.55896875816</v>
+        <v>4764.558968757095</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.94871490817</v>
+        <v>8128.94871490902</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194629</v>
+        <v>41060.19902194622</v>
       </c>
       <c r="M3" t="n">
         <v>179249.6449383016</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613153</v>
+        <v>24549.15438613139</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875962</v>
+        <v>31434.59456875989</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347107.9431314851</v>
+        <v>347107.9431314864</v>
       </c>
       <c r="C4" t="n">
-        <v>331736.8656690615</v>
+        <v>331736.8656690616</v>
       </c>
       <c r="D4" t="n">
         <v>304173.8599471605</v>
@@ -26430,34 +26430,34 @@
         <v>13481.93447066361</v>
       </c>
       <c r="G4" t="n">
-        <v>44619.42690608403</v>
+        <v>44619.42690608391</v>
       </c>
       <c r="H4" t="n">
-        <v>44619.42690608392</v>
+        <v>44619.42690608391</v>
       </c>
       <c r="I4" t="n">
-        <v>44619.42690608392</v>
+        <v>44619.42690608391</v>
       </c>
       <c r="J4" t="n">
-        <v>44619.42690608389</v>
+        <v>44619.42690608386</v>
       </c>
       <c r="K4" t="n">
-        <v>44619.42690608389</v>
+        <v>44619.42690608391</v>
       </c>
       <c r="L4" t="n">
-        <v>44619.42690608398</v>
+        <v>44619.4269060839</v>
       </c>
       <c r="M4" t="n">
-        <v>44619.42690608389</v>
+        <v>44619.42690608387</v>
       </c>
       <c r="N4" t="n">
+        <v>44619.42690608396</v>
+      </c>
+      <c r="O4" t="n">
+        <v>44619.42690608394</v>
+      </c>
+      <c r="P4" t="n">
         <v>44619.42690608387</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44619.42690608391</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44619.4269060839</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425691</v>
+        <v>42410.88882425664</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26476,40 +26476,40 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390696</v>
+        <v>82183.39720390698</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215524</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215524</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="M5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="M5" t="n">
-        <v>95106.43410215528</v>
-      </c>
       <c r="N5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-324403.5440557851</v>
+        <v>-324403.5440557816</v>
       </c>
       <c r="C6" t="n">
-        <v>-17471.29527616502</v>
+        <v>-17471.29527616962</v>
       </c>
       <c r="D6" t="n">
-        <v>-31709.86420187407</v>
+        <v>-31709.8642018739</v>
       </c>
       <c r="E6" t="n">
-        <v>-454520.1661255916</v>
+        <v>-454867.7850553979</v>
       </c>
       <c r="F6" t="n">
-        <v>170359.7556187811</v>
+        <v>170104.1260548198</v>
       </c>
       <c r="G6" t="n">
-        <v>126830.9420263686</v>
+        <v>126830.9420263685</v>
       </c>
       <c r="H6" t="n">
         <v>270795.0239239029</v>
       </c>
       <c r="I6" t="n">
-        <v>270795.0239239024</v>
+        <v>270795.0239239028</v>
       </c>
       <c r="J6" t="n">
-        <v>266030.4649551447</v>
+        <v>266030.4649551457</v>
       </c>
       <c r="K6" t="n">
-        <v>262666.0752089947</v>
+        <v>262666.0752089937</v>
       </c>
       <c r="L6" t="n">
-        <v>229734.8249019565</v>
+        <v>229734.8249019566</v>
       </c>
       <c r="M6" t="n">
-        <v>91545.37898560114</v>
+        <v>91545.37898560148</v>
       </c>
       <c r="N6" t="n">
-        <v>246245.8695377713</v>
+        <v>246245.869537771</v>
       </c>
       <c r="O6" t="n">
-        <v>239360.4293551433</v>
+        <v>239360.4293551428</v>
       </c>
       <c r="P6" t="n">
-        <v>270795.0239239029</v>
+        <v>270795.0239239028</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H2" t="n">
         <v>31.61020235221398</v>
@@ -26707,16 +26707,16 @@
         <v>31.61020235221398</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N2" t="n">
         <v>31.61020235221394</v>
@@ -26725,7 +26725,7 @@
         <v>31.610202352214</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228114</v>
+        <v>352.1154025228073</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26753,7 +26753,7 @@
         <v>1278.159870620123</v>
       </c>
       <c r="H3" t="n">
-        <v>1278.159870620122</v>
+        <v>1278.159870620123</v>
       </c>
       <c r="I3" t="n">
         <v>1278.159870620123</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.2100830470332</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,16 +26796,16 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461614</v>
+        <v>931.6319501461617</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="I4" t="n">
         <v>1062.255112188953</v>
@@ -26817,13 +26817,13 @@
         <v>1062.255112188953</v>
       </c>
       <c r="L4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="O4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221419</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228114</v>
+        <v>352.1154025228073</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074475665</v>
+        <v>44.74454074476074</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
@@ -26969,19 +26969,19 @@
         <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>81.7909432149745</v>
+        <v>81.79094321497473</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118497</v>
+        <v>106.59222681185</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,46 +27009,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.2100830470332</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009142</v>
+        <v>31.58492398009428</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773691</v>
+        <v>719.2887952773694</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438687</v>
+        <v>100.2304947438686</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427907</v>
+        <v>130.6231620427914</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703343</v>
+        <v>18.21008304703012</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009142</v>
+        <v>31.5849239800945</v>
       </c>
       <c r="L4" t="n">
-        <v>62.31765309779857</v>
+        <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773696</v>
+        <v>719.2887952773694</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438687</v>
+        <v>100.2304947438681</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427907</v>
+        <v>130.6231620427918</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.2100830470332</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009142</v>
+        <v>31.58492398009428</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773691</v>
+        <v>719.2887952773694</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438687</v>
+        <v>100.2304947438686</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427907</v>
+        <v>130.6231620427914</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364.5237586164474</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>388.6659626946782</v>
+        <v>388.6659626946811</v>
       </c>
       <c r="G2" t="n">
-        <v>397.8477570606839</v>
+        <v>397.8477570606864</v>
       </c>
       <c r="H2" t="n">
-        <v>324.9779101918003</v>
+        <v>324.9779101918005</v>
       </c>
       <c r="I2" t="n">
-        <v>137.6932274047368</v>
+        <v>155.9033104517706</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.95024697140676</v>
+        <v>42.74016392437744</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365425</v>
+        <v>158.5533845895126</v>
       </c>
       <c r="T2" t="n">
-        <v>216.8993262493832</v>
+        <v>216.8993262493833</v>
       </c>
       <c r="U2" t="n">
         <v>251.2324097633065</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>150.493742502043</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>131.4056244168119</v>
+        <v>129.2349825176084</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>126.8591293463507</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5861368634446</v>
       </c>
       <c r="H3" t="n">
-        <v>86.71066197856487</v>
+        <v>104.9207450255981</v>
       </c>
       <c r="I3" t="n">
-        <v>45.11007895717368</v>
+        <v>45.11007895717682</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.13381869874766</v>
+        <v>53.13381869874821</v>
       </c>
       <c r="S3" t="n">
-        <v>157.6151642200255</v>
+        <v>139.4050811729953</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1119545918172</v>
+        <v>197.1119545918173</v>
       </c>
       <c r="U3" t="n">
         <v>225.8915544296744</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>161.621897134907</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>132.576031870388</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
-        <v>136.3554298199556</v>
+        <v>136.3554298199559</v>
       </c>
       <c r="J4" t="n">
-        <v>30.25726943980509</v>
+        <v>48.46735248683881</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.78253442371666</v>
+        <v>14.78253442372013</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545822</v>
+        <v>148.7431818545825</v>
       </c>
       <c r="S4" t="n">
-        <v>212.9509385839193</v>
+        <v>212.9509385839195</v>
       </c>
       <c r="T4" t="n">
-        <v>209.1931279659347</v>
+        <v>225.2325691137615</v>
       </c>
       <c r="U4" t="n">
         <v>286.2843950546034</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>233.9275602767977</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>207.4995723420039</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>357.0810387145868</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>369.7038852163564</v>
+        <v>376.5799309580678</v>
       </c>
       <c r="H5" t="n">
-        <v>323.1357392253592</v>
+        <v>273.3407321982346</v>
       </c>
       <c r="I5" t="n">
-        <v>148.9685811771479</v>
+        <v>99.17357415002331</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
-        <v>166.3169052439262</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U5" t="n">
         <v>251.2180195592479</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>116.7381766227427</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>122.9134919611911</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>101.2097702038925</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>86.69488686188784</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
-        <v>54.19623348224745</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>10.21152625211678</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>161.9135430139861</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>155.8876887501797</v>
       </c>
     </row>
     <row r="7">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>127.7977976517315</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2753302804353</v>
+        <v>117.4803232533106</v>
       </c>
       <c r="H7" t="n">
-        <v>155.8644016137399</v>
+        <v>106.0693945866152</v>
       </c>
       <c r="I7" t="n">
-        <v>84.13394835375473</v>
+        <v>84.13394835375472</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>95.32019944182534</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S7" t="n">
         <v>211.5447863772357</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.929186254183</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>294.7633856167878</v>
+        <v>351.1526508336462</v>
       </c>
       <c r="G8" t="n">
-        <v>301.2760442195641</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>221.1238788688433</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>24.57246563410433</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>29.63673178547965</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>165.4040387101212</v>
@@ -27907,19 +27907,19 @@
         <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1925302541847</v>
+        <v>139.0798701292611</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>237.1283085924894</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.1252785311299</v>
       </c>
     </row>
     <row r="9">
@@ -27932,22 +27932,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>64.19182107941147</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>35.3324054397151</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>95.47017249486039</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>24.20675900740719</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
         <v>54.13711731454486</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.57392307749219</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -27989,13 +27989,13 @@
         <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>120.6879270245016</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>139.582323035996</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>93.66032507855383</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>36.50281289328871</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>34.32130252164552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>33.3083878980076</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>82.65214375373942</v>
+        <v>115.3104681807278</v>
       </c>
       <c r="H10" t="n">
-        <v>154.5937101357652</v>
+        <v>42.48105001084157</v>
       </c>
       <c r="I10" t="n">
-        <v>129.630951895051</v>
+        <v>17.51829177012733</v>
       </c>
       <c r="J10" t="n">
-        <v>32.65832442698833</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>138.6889896488451</v>
+        <v>26.57632952392139</v>
       </c>
       <c r="S10" t="n">
         <v>209.0540751673406</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D17" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E17" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F17" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G17" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H17" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T17" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U17" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V17" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W17" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X17" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>31.61020235221398</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605506</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>31.61020235221398</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221594</v>
       </c>
       <c r="F38" t="n">
         <v>31.61020235221394</v>
@@ -30648,7 +30648,7 @@
         <v>31.610202352214</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221201</v>
+        <v>31.610202352214</v>
       </c>
       <c r="N43" t="n">
         <v>31.610202352214</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.415539306624366</v>
+        <v>1.41553930662435</v>
       </c>
       <c r="H2" t="n">
-        <v>14.4968919239668</v>
+        <v>14.49689192396663</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863594</v>
+        <v>54.5725791186353</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256099</v>
+        <v>120.1421292256085</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0619080750194</v>
+        <v>180.0619080750173</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301249</v>
+        <v>223.3827191301223</v>
       </c>
       <c r="M2" t="n">
-        <v>248.5563162743059</v>
+        <v>248.556316274303</v>
       </c>
       <c r="N2" t="n">
-        <v>247.6231466436241</v>
+        <v>247.6231466436213</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490064</v>
+        <v>238.5024483490036</v>
       </c>
       <c r="P2" t="n">
-        <v>203.5563217167173</v>
+        <v>203.556321716715</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.8623202982321</v>
+        <v>152.8623202982304</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974293</v>
+        <v>88.9188709697419</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970278</v>
+        <v>32.25660194970241</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748167</v>
+        <v>6.196523314748095</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299493</v>
+        <v>0.113243144529948</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660471</v>
+        <v>0.7573802997660384</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898404</v>
+        <v>7.314699210898319</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720821</v>
+        <v>26.0764708472079</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079134</v>
+        <v>71.5558291107905</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951165</v>
+        <v>122.3003091951151</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269074</v>
+        <v>156.7644628269045</v>
       </c>
       <c r="M3" t="n">
-        <v>148.9563446310738</v>
+        <v>148.9563446310727</v>
       </c>
       <c r="N3" t="n">
-        <v>149.5517951303665</v>
+        <v>149.5517951303636</v>
       </c>
       <c r="O3" t="n">
-        <v>160.8063274914776</v>
+        <v>160.8063274914748</v>
       </c>
       <c r="P3" t="n">
-        <v>144.6264188211148</v>
+        <v>144.6264188211131</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645193</v>
+        <v>96.67893089645079</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389547</v>
+        <v>47.02401545389493</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06800688381231</v>
+        <v>14.06800688381215</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004373</v>
+        <v>3.052774103004338</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039786</v>
+        <v>0.04982765130039728</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706434</v>
+        <v>0.6349622012706361</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660816</v>
+        <v>5.64539120766075</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730263</v>
+        <v>19.09504510730241</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983449</v>
+        <v>44.89182762983397</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035293</v>
+        <v>73.77106302035206</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800094</v>
+        <v>94.40156217799985</v>
       </c>
       <c r="M4" t="n">
-        <v>99.5332112409973</v>
+        <v>99.53321124099614</v>
       </c>
       <c r="N4" t="n">
-        <v>97.16653394535226</v>
+        <v>97.16653394535113</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778152</v>
+        <v>89.74902095778049</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205186033</v>
+        <v>76.79579205185944</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094452</v>
+        <v>53.1694257809439</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258729</v>
+        <v>28.55020952258695</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305294</v>
+        <v>11.06565945305281</v>
       </c>
       <c r="T4" t="n">
-        <v>2.713020314520021</v>
+        <v>2.71302031451999</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748968</v>
+        <v>0.03463430188748928</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31376,13 +31376,13 @@
         <v>191.9290409491429</v>
       </c>
       <c r="N6" t="n">
-        <v>153.0991627102423</v>
+        <v>181.1367191104579</v>
       </c>
       <c r="O6" t="n">
         <v>192.3912514715691</v>
       </c>
       <c r="P6" t="n">
-        <v>163.0046057545602</v>
+        <v>134.9670493543445</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31604,16 +31604,16 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
         <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>254.246694046942</v>
+        <v>199.9629954989595</v>
       </c>
       <c r="N9" t="n">
-        <v>216.6986083828519</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628788</v>
@@ -31990,34 +31990,34 @@
         <v>4.709819673601094</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226721</v>
+        <v>48.23444073226722</v>
       </c>
       <c r="I14" t="n">
         <v>181.5753229665063</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223011</v>
+        <v>399.7400575223012</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058355</v>
+        <v>599.1067243058357</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418051</v>
+        <v>743.2448681418053</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622086</v>
+        <v>827.0031237622087</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098277</v>
+        <v>840.3848989098279</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304568</v>
+        <v>793.5516295304569</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384297</v>
+        <v>677.2779563384298</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775904</v>
+        <v>508.6075392775905</v>
       </c>
       <c r="R14" t="n">
         <v>295.853210071845</v>
@@ -32066,37 +32066,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681945</v>
+        <v>2.519975686681946</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137563</v>
+        <v>24.33765992137564</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146173</v>
+        <v>86.76232079146175</v>
       </c>
       <c r="J15" t="n">
-        <v>135.9953167090735</v>
+        <v>223.3837766951995</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744263</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332883</v>
+        <v>547.1552472332884</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755086</v>
+        <v>638.5043658755087</v>
       </c>
       <c r="N15" t="n">
-        <v>655.403676511196</v>
+        <v>655.4036765111961</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062959</v>
+        <v>599.5663205062961</v>
       </c>
       <c r="P15" t="n">
         <v>481.2048309068358</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>321.6726858999621</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32151,19 +32151,19 @@
         <v>18.78349435482773</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291422</v>
+        <v>63.53353714291423</v>
       </c>
       <c r="J16" t="n">
-        <v>149.3652715720809</v>
+        <v>149.365271572081</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913069</v>
+        <v>245.453024391307</v>
       </c>
       <c r="L16" t="n">
         <v>314.0953647023032</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587876</v>
+        <v>331.1695226587877</v>
       </c>
       <c r="N16" t="n">
         <v>323.2950516102405</v>
@@ -32178,16 +32178,16 @@
         <v>176.9067142150492</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320845</v>
+        <v>94.99300928320847</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869603</v>
+        <v>36.81795365869604</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408</v>
+        <v>9.026832665408001</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1152361616860597</v>
+        <v>0.1152361616860598</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879728</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869749</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N17" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581559</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247269</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160627</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>251.9869679943076</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171342</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879727</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383703</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171634</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869748</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654294</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117587</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565674</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829623</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734506</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537073</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,31 +32543,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781096</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247268</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155582</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879665</v>
+        <v>254.1392278303035</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160626</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578281</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P21" t="n">
-        <v>215.4343416764922</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,7 +32576,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486995</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051419</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151665</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692046</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381983</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227497</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925529</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1257206430118154</v>
+        <v>0.1257206430118155</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32780,31 +32780,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879668</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578282</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>521.5364117268593</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838146</v>
@@ -32871,31 +32871,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33026,13 +33026,13 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160628</v>
@@ -33041,10 +33041,10 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>177.6727308988288</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33266,10 +33266,10 @@
         <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>501.5641647828768</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N30" t="n">
         <v>715.0339827160628</v>
@@ -33278,10 +33278,10 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33506,7 +33506,7 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
@@ -33515,10 +33515,10 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>426.0337564144093</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33734,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
         <v>443.943509024727</v>
@@ -33743,7 +33743,7 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160628</v>
@@ -33752,7 +33752,7 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>215.4343416764904</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33974,13 +33974,13 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160628</v>
@@ -33989,10 +33989,10 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P39" t="n">
-        <v>177.6727308988288</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>593.4871659531818</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34226,7 +34226,7 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>215.4343416764904</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34457,13 +34457,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>272.5760810583997</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34702,16 +34702,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18.2100830470332</v>
+        <v>17.4743221158372</v>
       </c>
       <c r="M2" t="n">
-        <v>18.2100830470332</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="N2" t="n">
-        <v>18.2100830470332</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="O2" t="n">
-        <v>17.47432211583994</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.2100830470332</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="M3" t="n">
-        <v>6.822310709055435</v>
+        <v>6.822310709054376</v>
       </c>
       <c r="N3" t="n">
-        <v>18.2100830470332</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="O3" t="n">
-        <v>18.2100830470332</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="P3" t="n">
-        <v>10.65201140678451</v>
+        <v>10.65201140678283</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>18.2100830470332</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>17.4743221158372</v>
       </c>
       <c r="M4" t="n">
-        <v>17.47432211583994</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="N4" t="n">
-        <v>18.2100830470332</v>
+        <v>18.21008304703035</v>
       </c>
       <c r="O4" t="n">
-        <v>18.2100830470332</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>42.86418322768704</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>47.78308755128119</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M5" t="n">
         <v>49.79500702712463</v>
@@ -34948,7 +34948,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O5" t="n">
-        <v>49.79500702712463</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="N6" t="n">
-        <v>21.75745062690899</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="O6" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="P6" t="n">
-        <v>29.03019834022993</v>
+        <v>0.9926419400142784</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="L7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>49.79500702712463</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
         <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
+        <v>57.82896157694119</v>
+      </c>
+      <c r="N9" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="N9" t="n">
-        <v>85.35689629951858</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
@@ -35334,7 +35334,7 @@
         <v>77.4806606383279</v>
       </c>
       <c r="L10" t="n">
-        <v>112.1126601249237</v>
+        <v>30.10219503710387</v>
       </c>
       <c r="M10" t="n">
         <v>112.1126601249237</v>
@@ -35343,7 +35343,7 @@
         <v>112.1126601249237</v>
       </c>
       <c r="O10" t="n">
-        <v>30.10219503710393</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35580,7 +35580,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956148</v>
+        <v>218.694152995615</v>
       </c>
       <c r="K14" t="n">
-        <v>379.016873260855</v>
+        <v>379.0168732608551</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718179</v>
+        <v>507.4784531718181</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349359</v>
+        <v>596.656890534936</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132369</v>
+        <v>610.9718353132371</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087701</v>
+        <v>563.4534181087702</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831602</v>
+        <v>446.0449605831603</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031409</v>
+        <v>286.301849403141</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771283</v>
+        <v>80.26767225771289</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>9.157690042406836</v>
+        <v>96.54615002853279</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000673</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534141</v>
+        <v>408.6008674534142</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534903</v>
+        <v>496.3703319534904</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278627</v>
+        <v>524.0619644278628</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618515</v>
+        <v>456.9700760618516</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2304234925055</v>
+        <v>347.2304234925056</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>181.6909118139406</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540815</v>
+        <v>56.00609145540818</v>
       </c>
       <c r="K16" t="n">
         <v>223.1835325654241</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626193</v>
+        <v>341.6853899626194</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206282</v>
+        <v>370.7533996206283</v>
       </c>
       <c r="N16" t="n">
         <v>367.4272239894691</v>
@@ -35823,7 +35823,7 @@
         <v>252.7955417767829</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335481</v>
+        <v>90.74467096335484</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K17" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276929</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.0051939082861</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.063527911684</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721828</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381567</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151679</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348807</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276927</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503678</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.382454135684</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659482</v>
+        <v>112.0051939082852</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327293</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133837</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P21" t="n">
-        <v>81.45993426216197</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36358,28 +36358,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659484</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133838</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>387.5620043125291</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36674,13 +36674,13 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327296</v>
@@ -36689,10 +36689,10 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>43.69832348449857</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
@@ -36768,7 +36768,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q28" t="n">
         <v>138.4502995641581</v>
@@ -36914,10 +36914,10 @@
         <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>359.4301308608585</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N30" t="n">
         <v>583.6922706327296</v>
@@ -36926,10 +36926,10 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37154,7 +37154,7 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
@@ -37163,10 +37163,10 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>292.059349000079</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
         <v>306.102070050368</v>
@@ -37391,7 +37391,7 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327296</v>
@@ -37400,7 +37400,7 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>81.45993426216013</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
         <v>432.4942538895098</v>
@@ -37622,13 +37622,13 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327296</v>
@@ -37637,10 +37637,10 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P39" t="n">
-        <v>43.69832348449857</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>454.9327861733077</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37874,7 +37874,7 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>81.45993426216013</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895079</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
         <v>428.4516387010908</v>
@@ -38105,13 +38105,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>141.2343689750664</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
